--- a/data/trans_bre/P2C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.155615109420529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.407605466583549</v>
+        <v>3.407605466583548</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1060322093620174</v>
@@ -649,7 +649,7 @@
         <v>0.3967058563440613</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4369435236668638</v>
+        <v>0.4369435236668636</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.906769745260844</v>
+        <v>-3.399393854320701</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.494686017679802</v>
+        <v>4.10009750830129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.069320464521192</v>
+        <v>3.105922107458292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.925459269484636</v>
+        <v>-2.189802446267418</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1333007475374138</v>
+        <v>-0.1582882030213488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1213249330821583</v>
+        <v>0.09456475107463655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07413866134881256</v>
+        <v>0.1170367315157058</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3046192871604479</v>
+        <v>-0.2446789713261197</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.443565292882613</v>
+        <v>7.386934741797647</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.13567494030774</v>
+        <v>17.3156683961449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.79266150829647</v>
+        <v>15.74775280810508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.404229618794286</v>
+        <v>9.49487080478286</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4516912415089157</v>
+        <v>0.4543837671608796</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.546005197959393</v>
+        <v>0.5545888562402663</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.739215182079545</v>
+        <v>0.781889421944267</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.815235140515468</v>
+        <v>1.812955142854085</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>19.75883128165707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.98757826502171</v>
+        <v>7.987578265021717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7311156788395189</v>
@@ -749,7 +749,7 @@
         <v>0.5195012298424895</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5917550809871499</v>
+        <v>0.5917550809871505</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.49663403087932</v>
+        <v>16.25122682136004</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>21.70126329599685</v>
+        <v>21.83338574666151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13.86073666966814</v>
+        <v>13.66086396011992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.303352828214261</v>
+        <v>1.796206732902993</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.502243306076515</v>
+        <v>0.4980782932128331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5148081764074169</v>
+        <v>0.5194520580896519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3364211937522835</v>
+        <v>0.330443043207029</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.121621146613277</v>
+        <v>0.1012423002228456</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>27.29904229579545</v>
+        <v>27.26955560132555</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>32.2577611572036</v>
+        <v>33.18730583950659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25.63525948354627</v>
+        <v>25.19500232382715</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.45401723606434</v>
+        <v>13.00771977279606</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.008671570208358</v>
+        <v>1.012729805823692</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8738978243688309</v>
+        <v>0.913765017930485</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7329317482072052</v>
+        <v>0.7067442787539453</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.306193245524569</v>
+        <v>1.279372363542375</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.12474703574605</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.357808654986572</v>
+        <v>3.357808654986566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06580495018479891</v>
@@ -849,7 +849,7 @@
         <v>0.1820342564621015</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1619152398775166</v>
+        <v>0.1619152398775164</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.967585883464178</v>
+        <v>-1.849985912200904</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.03837760602893</v>
+        <v>3.238146801421397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.525629106409067</v>
+        <v>4.330181669988134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.49962316746203</v>
+        <v>-1.797754018258494</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03421250811143656</v>
+        <v>-0.03222373099686725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03815262488072265</v>
+        <v>0.04098084703214393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07826301525675181</v>
+        <v>0.07085443819618278</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06278370244383925</v>
+        <v>-0.0728613432773059</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.151025610593237</v>
+        <v>9.016407146118318</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.79391118249362</v>
+        <v>11.91920553213628</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.14362005980358</v>
+        <v>15.75133542743037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.582360012154679</v>
+        <v>7.766399564164951</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.177221485942027</v>
+        <v>0.1753774174303658</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1637744910837461</v>
+        <v>0.166795450608983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2889282458904718</v>
+        <v>0.3014563862245876</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4201915711506954</v>
+        <v>0.4243896814667783</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.1086531794922019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5306632112323489</v>
+        <v>0.5306632112323517</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.218076934613081</v>
@@ -949,7 +949,7 @@
         <v>0.003507330235238177</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03605570265043214</v>
+        <v>0.03605570265043233</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-12.52850129640074</v>
+        <v>-12.72188198988642</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.47382238156828</v>
+        <v>-13.57902034871944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.059662660916878</v>
+        <v>-5.358681351908039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.290896595834431</v>
+        <v>-2.772014134563097</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3595256063503969</v>
+        <v>-0.3572277865433646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2400484364478236</v>
+        <v>-0.2443070323307632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1541485176642557</v>
+        <v>-0.1576358366293186</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1921087674163844</v>
+        <v>-0.169920109732079</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.096742324238802</v>
+        <v>-1.453385856829498</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.119115648732355</v>
+        <v>-1.362381828320432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.962061061989823</v>
+        <v>5.502670814902871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.977703070933241</v>
+        <v>3.859644772095783</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03767540790025763</v>
+        <v>-0.04912402269504341</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04091799461317907</v>
+        <v>-0.02601924285168822</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1756269129990114</v>
+        <v>0.1940427265343194</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3102097646296161</v>
+        <v>0.3160779859281103</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.807847146581962</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.085770783629601</v>
+        <v>2.0857707836296</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.588438763809629</v>
@@ -1049,7 +1049,7 @@
         <v>0.140196151598338</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2445749765592732</v>
+        <v>0.244574976559273</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.763610701376537</v>
+        <v>1.776438608641493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.24278171290425</v>
+        <v>-8.896602551342388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.448434711276894</v>
+        <v>-2.588227340254786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.946416319660369</v>
+        <v>-0.9480222157415717</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09793324845633147</v>
+        <v>0.114296492902668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3167063366436162</v>
+        <v>-0.3024346677435028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1656908784544115</v>
+        <v>-0.1599742376188927</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.09055629174987054</v>
+        <v>-0.1004440377996345</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.67926549461612</v>
+        <v>12.03456453754023</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.711533203296273</v>
+        <v>4.211622055807123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.636415833772667</v>
+        <v>6.59639668033045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.024187386788663</v>
+        <v>5.035538596772611</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.229077507896022</v>
+        <v>1.301502542176611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1168949079121449</v>
+        <v>0.1797908626166483</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6419069656576604</v>
+        <v>0.6340885879012707</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7077972566345637</v>
+        <v>0.7407195396267391</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.462131021843865</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.417080541497583</v>
+        <v>3.41708054149758</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6591122946859521</v>
@@ -1149,7 +1149,7 @@
         <v>0.4788782610205673</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4014277566469299</v>
+        <v>0.4014277566469295</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.609106949774143</v>
+        <v>1.738002282114562</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.301096886570564</v>
+        <v>-4.670182402520199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5775764928154989</v>
+        <v>0.4467268863956562</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1410697080273925</v>
+        <v>0.08488213002204748</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1177036103567466</v>
+        <v>0.111241966448297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1643618780845252</v>
+        <v>-0.1729473513118643</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02418892928766364</v>
+        <v>0.01346196118506589</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.001668890468137126</v>
+        <v>0.003803871308157629</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.96519991548741</v>
+        <v>12.17478289044254</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.36089115624409</v>
+        <v>9.024545927668779</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.33402121793307</v>
+        <v>10.79514325846756</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.525434691333181</v>
+        <v>6.396436592345098</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.50728406562213</v>
+        <v>1.532247822398793</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4773861684771982</v>
+        <v>0.451291150038905</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.248290866466128</v>
+        <v>1.124345792606643</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9329285840995711</v>
+        <v>0.9384329898854133</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>9.783482167959646</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.67647160660631</v>
+        <v>10.6764716066063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02489353068252072</v>
@@ -1249,7 +1249,7 @@
         <v>0.3631372524541456</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5157184468820909</v>
+        <v>0.5157184468820907</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.204052641928008</v>
+        <v>-7.250620219252483</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2529714510394484</v>
+        <v>1.584012178283325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.409219009268641</v>
+        <v>1.82355473151645</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.629961442534126</v>
+        <v>5.314067866055052</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2572711300917116</v>
+        <v>-0.274711806563714</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01168493815091646</v>
+        <v>0.03513499076655884</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07567691122381486</v>
+        <v>0.05095258961326212</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2309975555377527</v>
+        <v>0.2189497572602957</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.635635407667138</v>
+        <v>7.445760619283659</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.81631791273832</v>
+        <v>18.97395218355652</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.32701637161152</v>
+        <v>17.58128224039492</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.3008135680977</v>
+        <v>15.68960537360342</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4246852112096842</v>
+        <v>0.3953730143962308</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6033475707336223</v>
+        <v>0.5994943054387439</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7335869236212991</v>
+        <v>0.7447062693669161</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8695466834299683</v>
+        <v>0.8614823956531502</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>7.445024231281694</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.474245901179799</v>
+        <v>4.474245901179796</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1842532268147353</v>
@@ -1349,7 +1349,7 @@
         <v>0.237802234292573</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3300746283986</v>
+        <v>0.3300746283985998</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.930079775047802</v>
+        <v>3.237156731000474</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.373262067950064</v>
+        <v>4.092237192775382</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.166596449984115</v>
+        <v>4.98572569698438</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.732263227854627</v>
+        <v>2.930253193656724</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09676722206335499</v>
+        <v>0.1076680610895309</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09480684909724442</v>
+        <v>0.08812624241470325</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1583804842847127</v>
+        <v>0.1581032575544479</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1898516803996753</v>
+        <v>0.2037822569716617</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.749600508390183</v>
+        <v>7.816951059135767</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.445836104269903</v>
+        <v>9.097688797970306</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.840080653847401</v>
+        <v>9.904749291990482</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.250077945423753</v>
+        <v>6.428613142043806</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2753526683338518</v>
+        <v>0.2806250065070418</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2172488588510332</v>
+        <v>0.208811029321718</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3264634531559131</v>
+        <v>0.3313976945863921</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4870738974513178</v>
+        <v>0.5134386652258516</v>
       </c>
     </row>
     <row r="28">
